--- a/data/trans_orig/P36B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAECF285-A3DE-41BF-BC53-6EE9146E78FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA79593-AAAC-4084-A14C-8CEE16BA1D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{88A03F1C-9B5A-4408-8E76-84B9FB8A6E03}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A85D8EA1-5F3C-432E-A327-6B1A170C84B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="180">
-  <si>
-    <t>Población según la frecuencia de consumición de café o té en 2015 (Tasa respuesta: 99,79%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="182">
+  <si>
+    <t>Población según la frecuencia de consumo de café o té en 2015 (Tasa respuesta: 99,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>16,35%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,475 +104,481 @@
     <t>2,56%</t>
   </si>
   <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>79,62%</t>
   </si>
   <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>80,97%</t>
   </si>
   <si>
-    <t>81,87%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -987,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2113E0C5-FEBA-42F9-A0B8-C84080E6CAEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33213701-16C7-4A1B-BB5D-162EAB7AB2C3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1285,7 +1291,7 @@
         <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -1294,10 +1300,10 @@
         <v>20891</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>48</v>
@@ -1449,13 +1455,13 @@
         <v>546119</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1470,13 +1476,13 @@
         <v>42363</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -1485,13 +1491,13 @@
         <v>28467</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>68</v>
@@ -1587,10 +1593,10 @@
         <v>42022</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>91</v>
@@ -1605,10 +1611,10 @@
         <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,13 +1629,13 @@
         <v>1634514</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>1544</v>
@@ -1638,28 +1644,28 @@
         <v>1621663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>3081</v>
       </c>
       <c r="N14" s="7">
-        <v>3256176</v>
+        <v>3256177</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,7 +1707,7 @@
         <v>3854</v>
       </c>
       <c r="N15" s="7">
-        <v>4058772</v>
+        <v>4058773</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -1715,7 +1721,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1727,13 +1733,13 @@
         <v>64643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -1742,13 +1748,13 @@
         <v>50687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -1757,13 +1763,13 @@
         <v>115330</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,13 +1784,13 @@
         <v>3123</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1793,10 +1799,10 @@
         <v>7590</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>118</v>
@@ -1808,10 +1814,10 @@
         <v>10712</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>120</v>
@@ -1832,10 +1838,10 @@
         <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -1844,13 +1850,13 @@
         <v>18614</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -1859,10 +1865,10 @@
         <v>28571</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>127</v>
@@ -1883,10 +1889,10 @@
         <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -1895,13 +1901,13 @@
         <v>15502</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -1910,13 +1916,13 @@
         <v>25152</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,13 +1937,13 @@
         <v>457777</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>432</v>
@@ -1946,13 +1952,13 @@
         <v>452785</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>850</v>
@@ -1961,13 +1967,13 @@
         <v>910562</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,13 +2041,13 @@
         <v>470858</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>436</v>
@@ -2050,13 +2056,13 @@
         <v>453525</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>887</v>
@@ -2065,13 +2071,13 @@
         <v>924383</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,13 +2092,13 @@
         <v>64769</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>47</v>
@@ -2101,13 +2107,13 @@
         <v>47200</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>110</v>
@@ -2116,13 +2122,13 @@
         <v>111969</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2143,13 @@
         <v>70897</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -2152,13 +2158,13 @@
         <v>53772</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>119</v>
@@ -2167,13 +2173,13 @@
         <v>124669</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2194,13 @@
         <v>81158</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -2203,13 +2209,13 @@
         <v>70147</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="M25" s="7">
         <v>143</v>
@@ -2218,13 +2224,13 @@
         <v>151305</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,13 +2245,13 @@
         <v>2687249</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>2713</v>
@@ -2254,13 +2260,13 @@
         <v>2896123</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>5269</v>
@@ -2269,13 +2275,13 @@
         <v>5583372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,7 +2337,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA79593-AAAC-4084-A14C-8CEE16BA1D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DADE2C2B-FB9B-4B9E-A8E0-9408513DF1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A85D8EA1-5F3C-432E-A327-6B1A170C84B5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{69FF9482-749D-483E-8B90-224908D269D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="182">
-  <si>
-    <t>Población según la frecuencia de consumo de café o té en 2015 (Tasa respuesta: 99,79%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="186">
+  <si>
+    <t>Población según la frecuencia de consumo de café o té en 2016 (Tasa respuesta: 99,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,511 +74,523 @@
     <t>16,35%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>2,61%</t>
   </si>
   <si>
     <t>79,62%</t>
   </si>
   <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>80,97%</t>
   </si>
   <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -993,7 +1005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33213701-16C7-4A1B-BB5D-162EAB7AB2C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71998A5-AFE6-4035-BB2D-5BBA99FA8E75}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1291,7 +1303,7 @@
         <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -1300,7 +1312,7 @@
         <v>20891</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>47</v>
@@ -1455,13 +1467,13 @@
         <v>546119</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1476,13 +1488,13 @@
         <v>42363</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -1491,13 +1503,13 @@
         <v>28467</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>68</v>
@@ -1506,13 +1518,13 @@
         <v>70831</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1527,13 +1539,13 @@
         <v>52447</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -1542,13 +1554,13 @@
         <v>27938</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>76</v>
@@ -1557,13 +1569,13 @@
         <v>80385</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,13 +1590,13 @@
         <v>63240</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -1593,13 +1605,13 @@
         <v>42022</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -1608,13 +1620,13 @@
         <v>105262</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,16 +1638,16 @@
         <v>1537</v>
       </c>
       <c r="D14" s="7">
-        <v>1634514</v>
+        <v>1634513</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>1544</v>
@@ -1644,13 +1656,13 @@
         <v>1621663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>3081</v>
@@ -1659,13 +1671,13 @@
         <v>3256177</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,7 +1689,7 @@
         <v>1951</v>
       </c>
       <c r="D15" s="7">
-        <v>2075434</v>
+        <v>2075433</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -1721,7 +1733,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1733,13 +1745,13 @@
         <v>64643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -1748,13 +1760,13 @@
         <v>50687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -1763,13 +1775,13 @@
         <v>115330</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,13 +1796,13 @@
         <v>3123</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1799,13 +1811,13 @@
         <v>7590</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -1814,10 +1826,10 @@
         <v>10712</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>120</v>
@@ -1865,13 +1877,13 @@
         <v>28571</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,13 +1898,13 @@
         <v>9651</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -1901,13 +1913,13 @@
         <v>15502</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -1916,13 +1928,13 @@
         <v>25152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,13 +1949,13 @@
         <v>457777</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H20" s="7">
         <v>432</v>
@@ -1952,13 +1964,13 @@
         <v>452785</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>850</v>
@@ -1967,13 +1979,13 @@
         <v>910562</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +2053,13 @@
         <v>470858</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="H22" s="7">
         <v>436</v>
@@ -2056,13 +2068,13 @@
         <v>453525</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>887</v>
@@ -2071,13 +2083,13 @@
         <v>924383</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2104,13 @@
         <v>64769</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7">
         <v>47</v>
@@ -2107,13 +2119,13 @@
         <v>47200</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>110</v>
@@ -2122,13 +2134,13 @@
         <v>111969</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2155,13 @@
         <v>70897</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -2158,13 +2170,13 @@
         <v>53772</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>119</v>
@@ -2173,13 +2185,13 @@
         <v>124669</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,13 +2206,13 @@
         <v>81158</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -2209,13 +2221,13 @@
         <v>70147</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>143</v>
@@ -2224,13 +2236,13 @@
         <v>151305</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,13 +2257,13 @@
         <v>2687249</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>2713</v>
@@ -2260,13 +2272,13 @@
         <v>2896123</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>5269</v>
@@ -2275,13 +2287,13 @@
         <v>5583372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,7 +2349,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DADE2C2B-FB9B-4B9E-A8E0-9408513DF1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E49A359F-4E3C-4E6F-A846-76C7BA671B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{69FF9482-749D-483E-8B90-224908D269D9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99012149-2324-4249-B3A0-2F2E594B4D6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="180">
   <si>
     <t>Población según la frecuencia de consumo de café o té en 2016 (Tasa respuesta: 99,79%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>16,35%</t>
   </si>
   <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,493 +104,475 @@
     <t>2,56%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>0,76%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>79,62%</t>
   </si>
   <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>80,97%</t>
   </si>
   <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
+    <t>81,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1005,7 +987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71998A5-AFE6-4035-BB2D-5BBA99FA8E75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3222633-3756-4401-B0E6-EAA90123E464}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1312,10 +1294,10 @@
         <v>20891</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>48</v>
@@ -1509,7 +1491,7 @@
         <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>68</v>
@@ -1518,13 +1500,13 @@
         <v>70831</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1539,13 +1521,13 @@
         <v>52447</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -1554,13 +1536,13 @@
         <v>27938</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>76</v>
@@ -1569,13 +1551,13 @@
         <v>80385</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,13 +1572,13 @@
         <v>63240</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -1605,13 +1587,13 @@
         <v>42022</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -1620,13 +1602,13 @@
         <v>105262</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,16 +1620,16 @@
         <v>1537</v>
       </c>
       <c r="D14" s="7">
-        <v>1634513</v>
+        <v>1634514</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>1544</v>
@@ -1656,28 +1638,28 @@
         <v>1621663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>3081</v>
       </c>
       <c r="N14" s="7">
-        <v>3256177</v>
+        <v>3256176</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,7 +1671,7 @@
         <v>1951</v>
       </c>
       <c r="D15" s="7">
-        <v>2075433</v>
+        <v>2075434</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -1719,7 +1701,7 @@
         <v>3854</v>
       </c>
       <c r="N15" s="7">
-        <v>4058773</v>
+        <v>4058772</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -1733,7 +1715,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1745,13 +1727,13 @@
         <v>64643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -1760,13 +1742,13 @@
         <v>50687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -1775,13 +1757,13 @@
         <v>115330</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,13 +1778,13 @@
         <v>3123</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -1811,13 +1793,13 @@
         <v>7590</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -1826,10 +1808,10 @@
         <v>10712</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>120</v>
@@ -1850,10 +1832,10 @@
         <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -1862,13 +1844,13 @@
         <v>18614</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -1877,13 +1859,13 @@
         <v>28571</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,13 +1880,13 @@
         <v>9651</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -1913,10 +1895,10 @@
         <v>15502</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>133</v>
@@ -1928,13 +1910,13 @@
         <v>25152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,13 +1931,13 @@
         <v>457777</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>432</v>
@@ -1964,13 +1946,13 @@
         <v>452785</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>850</v>
@@ -1979,13 +1961,13 @@
         <v>910562</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,13 +2035,13 @@
         <v>470858</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>436</v>
@@ -2068,13 +2050,13 @@
         <v>453525</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>887</v>
@@ -2083,13 +2065,13 @@
         <v>924383</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,13 +2086,13 @@
         <v>64769</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>47</v>
@@ -2119,13 +2101,13 @@
         <v>47200</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="M23" s="7">
         <v>110</v>
@@ -2134,10 +2116,10 @@
         <v>111969</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>160</v>
@@ -2158,10 +2140,10 @@
         <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -2170,13 +2152,13 @@
         <v>53772</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>119</v>
@@ -2185,13 +2167,13 @@
         <v>124669</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,13 +2188,13 @@
         <v>81158</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -2221,13 +2203,13 @@
         <v>70147</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>143</v>
@@ -2236,13 +2218,13 @@
         <v>151305</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,13 +2239,13 @@
         <v>2687249</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>2713</v>
@@ -2272,13 +2254,13 @@
         <v>2896123</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>5269</v>
@@ -2287,13 +2269,13 @@
         <v>5583372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,7 +2331,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E49A359F-4E3C-4E6F-A846-76C7BA671B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB64BFC3-946A-4344-8A6A-FD0933BDD5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99012149-2324-4249-B3A0-2F2E594B4D6F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6D79B7EB-14B5-431F-94D9-78476AD693D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -987,7 +987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3222633-3756-4401-B0E6-EAA90123E464}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080B8933-EF72-4B5F-BF0C-3EB3F79F6E2A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1620,7 +1620,7 @@
         <v>1537</v>
       </c>
       <c r="D14" s="7">
-        <v>1634514</v>
+        <v>1634513</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>94</v>
@@ -1650,7 +1650,7 @@
         <v>3081</v>
       </c>
       <c r="N14" s="7">
-        <v>3256176</v>
+        <v>3256177</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>100</v>
@@ -1671,7 +1671,7 @@
         <v>1951</v>
       </c>
       <c r="D15" s="7">
-        <v>2075434</v>
+        <v>2075433</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -1701,7 +1701,7 @@
         <v>3854</v>
       </c>
       <c r="N15" s="7">
-        <v>4058772</v>
+        <v>4058773</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
